--- a/motoneta/画面遷移図一覧.xlsx
+++ b/motoneta/画面遷移図一覧.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/locattey/motoneta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF078CCF-6126-6341-95C2-8076A424974B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FE8BDF-683F-C949-BEDC-5EBF2E9068E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="26360" windowHeight="14420" xr2:uid="{1AC46232-5F5A-2E40-A02F-7038ED94AE80}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="26360" windowHeight="14420" activeTab="1" xr2:uid="{1AC46232-5F5A-2E40-A02F-7038ED94AE80}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="画面遷移" sheetId="1" r:id="rId1"/>
+    <sheet name="ルーティング一覧" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="4">
@@ -42,6 +43,369 @@
     <rPh sb="4" eb="5">
       <t xml:space="preserve">ズ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルーティング一覧</t>
+    <rPh sb="6" eb="8">
+      <t>イチラn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uri</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレ名称</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aboutsite.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bid_detail_001.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bid_list.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mailform.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mypage.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mypage_info.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>news_001.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>news_list.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>register.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reissue.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>talk_list.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>talk_room_001.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>top.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade_detail_001.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade_list.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade_register.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>withdrawel.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト案内</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引き取り詳細ページ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒキトリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引き取り一覧ページ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒキトリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よくある質問</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お問い合わせ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページトップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ一覧・修正ページ</t>
+    <rPh sb="0" eb="1">
+      <t>トップ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラn</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ詳細ページ</t>
+    <rPh sb="0" eb="1">
+      <t>オシラセ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ一覧ページ</t>
+    <rPh sb="0" eb="2">
+      <t>オシラセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員登録ページ</t>
+    <rPh sb="0" eb="4">
+      <t>カイイント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再発行ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落札後のメッセージ一覧ページ</t>
+    <rPh sb="0" eb="3">
+      <t>ラクサテゥ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落札後のメッセージ確認・登録ページ　修正不可</t>
+    <rPh sb="0" eb="1">
+      <t>ラクサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メッセージ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニn</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出品情報詳細ページ</t>
+    <rPh sb="0" eb="4">
+      <t>シュッピンジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出品一覧ページ　自分のみ</t>
+    <rPh sb="0" eb="1">
+      <t>シュッピンイチル</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジブn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ兼出品一覧ページ</t>
+    <rPh sb="7" eb="11">
+      <t>シュッピn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出品登録ページ</t>
+    <rPh sb="0" eb="4">
+      <t>シュッピn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退会ページ</t>
+    <rPh sb="0" eb="2">
+      <t>タイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>about.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faq.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mailform.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>member/mypage.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>member/mypage_info.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>news_001.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>news_list.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>register.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reissue.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>member/talk_list.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>member/talk_room_001.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>member/withdrawel.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要ログイン認証</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trade_detail_001.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>member/bid_detail_001.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>member/bid_list.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>member/trade_list.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>member/trade_register.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出品情報修正ページ　削除ボタンあり</t>
+    <rPh sb="0" eb="3">
+      <t>シュッピn</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>member/trade_update_001.php</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -82,12 +446,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -96,11 +475,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3044,8 +3429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60C5F0F-E847-6641-ACFE-860F44BEBB20}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3063,4 +3448,367 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6E3353-CCA9-A941-9902-1F2162BA6E9D}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/motoneta/画面遷移図一覧.xlsx
+++ b/motoneta/画面遷移図一覧.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/locattey/motoneta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FE8BDF-683F-C949-BEDC-5EBF2E9068E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBCB28C-0B7B-8F4C-B2FE-C21622AEDD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="26360" windowHeight="14420" activeTab="1" xr2:uid="{1AC46232-5F5A-2E40-A02F-7038ED94AE80}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="26360" windowHeight="14420" activeTab="2" xr2:uid="{1AC46232-5F5A-2E40-A02F-7038ED94AE80}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移" sheetId="1" r:id="rId1"/>
     <sheet name="ルーティング一覧" sheetId="2" r:id="rId2"/>
+    <sheet name="DB一覧" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
   <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="4">
@@ -406,6 +407,139 @@
   </si>
   <si>
     <t>member/trade_update_001.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB一覧</t>
+    <rPh sb="2" eb="4">
+      <t>イチラn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動でできるから省略</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>products</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>product_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>product_describe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>product_image1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>product_image2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>product_image3</t>
+  </si>
+  <si>
+    <t>trade_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deleted_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>categories</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(240)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timestump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolearn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>messages</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boards_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boards</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このフラグが立った場合、TOP一覧表から表示されなくなる</t>
+    <rPh sb="6" eb="7">
+      <t>タッタバ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>イチラn</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3454,7 +3588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6E3353-CCA9-A941-9902-1F2162BA6E9D}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -3811,4 +3945,295 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2462E704-B8A9-C141-8E68-48745A6362C2}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/motoneta/画面遷移図一覧.xlsx
+++ b/motoneta/画面遷移図一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/locattey/motoneta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBCB28C-0B7B-8F4C-B2FE-C21622AEDD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F03DB6C-1453-FB4D-81CE-39D58A6C0AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26360" windowHeight="14420" activeTab="2" xr2:uid="{1AC46232-5F5A-2E40-A02F-7038ED94AE80}"/>
   </bookViews>
@@ -3951,8 +3951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2462E704-B8A9-C141-8E68-48745A6362C2}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
